--- a/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,304 +40,352 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>complaints</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>uncertainty</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>can</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>this</t>
   </si>
 </sst>
 </file>
@@ -695,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -703,10 +751,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -806,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -814,13 +862,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -832,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -864,13 +912,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -882,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.90625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -906,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -914,37 +962,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8888888888888888</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -956,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -964,13 +1012,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -982,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1014,13 +1062,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.875</v>
+        <v>0.6472602739726028</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1032,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1056,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1064,13 +1112,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7647058823529411</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1082,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1106,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1114,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1132,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1156,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,13 +1212,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7272727272727273</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1182,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1206,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1214,13 +1262,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7207792207792207</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1232,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1256,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1264,13 +1312,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1282,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8235294117647058</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1306,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1314,13 +1362,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1332,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8214285714285714</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1356,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1364,13 +1412,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1382,19 +1430,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1406,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1414,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5263157894736842</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1432,31 +1480,31 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>0.75</v>
+      </c>
+      <c r="L16">
+        <v>27</v>
+      </c>
+      <c r="M16">
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>9</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16">
-        <v>0.8</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1464,13 +1512,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1482,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -1506,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1514,13 +1562,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4761904761904762</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1532,19 +1580,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7692307692307693</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1556,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1564,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4721030042918455</v>
+        <v>0.2965116279069768</v>
       </c>
       <c r="C19">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="D19">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1582,19 +1630,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>123</v>
+        <v>363</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7125</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1606,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1614,13 +1662,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4074074074074074</v>
+        <v>0.2467532467532468</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1632,19 +1680,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7397260273972602</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1656,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1664,13 +1712,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3928571428571428</v>
+        <v>0.2328042328042328</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1682,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7068965517241379</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1706,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1714,13 +1762,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.375</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,19 +1780,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1756,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1764,13 +1812,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3448275862068966</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1782,19 +1830,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1806,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1814,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3255813953488372</v>
+        <v>0.1305555555555556</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1832,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.6842105263157895</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1856,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1864,13 +1912,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3043478260869565</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1882,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1906,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1914,37 +1962,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2432432432432433</v>
+        <v>0.003375694996028594</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>0.1</v>
+        <v>0.88</v>
       </c>
       <c r="F26">
-        <v>0.9</v>
+        <v>0.12</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>5019</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="M26">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1956,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1964,727 +2012,583 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.225</v>
+        <v>0.002893757751136834</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
+        <v>4824</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L27">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.5796344647519582</v>
+      </c>
+      <c r="L28">
+        <v>222</v>
+      </c>
+      <c r="M28">
+        <v>222</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L29">
+        <v>150</v>
+      </c>
+      <c r="M29">
+        <v>150</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L30">
+        <v>45</v>
+      </c>
+      <c r="M30">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="L31">
+        <v>171</v>
+      </c>
+      <c r="M31">
+        <v>171</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>14</v>
+      </c>
+      <c r="M32">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="L33">
+        <v>36</v>
+      </c>
+      <c r="M33">
+        <v>36</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>0.475</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>16</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>0.4686192468619247</v>
+      </c>
+      <c r="L36">
+        <v>112</v>
+      </c>
+      <c r="M36">
+        <v>112</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37">
+        <v>21</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.4153846153846154</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L39">
         <v>31</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27">
-        <v>0.6572769953051644</v>
-      </c>
-      <c r="L27">
-        <v>140</v>
-      </c>
-      <c r="M27">
-        <v>140</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="M39">
+        <v>31</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <v>0.3125</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41">
+        <v>0.2428571428571429</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2074074074074074</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28">
-        <v>28</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="K42">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L42">
+        <v>14</v>
+      </c>
+      <c r="M42">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43">
+        <v>0.1574803149606299</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>107</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L28">
-        <v>7</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>90</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K29">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.09139784946236559</v>
-      </c>
-      <c r="C30">
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <v>0.146551724137931</v>
+      </c>
+      <c r="L44">
         <v>17</v>
       </c>
-      <c r="D30">
+      <c r="M44">
         <v>17</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>169</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L30">
-        <v>80</v>
-      </c>
-      <c r="M30">
-        <v>80</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.004551365409622887</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>0.79</v>
-      </c>
-      <c r="F31">
-        <v>0.21</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1531</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.55</v>
-      </c>
-      <c r="L31">
-        <v>11</v>
-      </c>
-      <c r="M31">
-        <v>11</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="L45">
+        <v>44</v>
+      </c>
+      <c r="M45">
+        <v>44</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>0.0889423076923077</v>
+      </c>
+      <c r="L46">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>0.004410838059231254</v>
-      </c>
-      <c r="C32">
-        <v>7</v>
-      </c>
-      <c r="D32">
+      <c r="M46">
+        <v>37</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47">
+        <v>0.07906976744186046</v>
+      </c>
+      <c r="L47">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>0.59</v>
-      </c>
-      <c r="F32">
-        <v>0.41</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>1580</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.5426356589147286</v>
-      </c>
-      <c r="L32">
-        <v>70</v>
-      </c>
-      <c r="M32">
-        <v>70</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.003580562659846547</v>
-      </c>
-      <c r="C33">
-        <v>7</v>
-      </c>
-      <c r="D33">
-        <v>41</v>
-      </c>
-      <c r="E33">
-        <v>0.83</v>
-      </c>
-      <c r="F33">
-        <v>0.17</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1948</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L33">
-        <v>7</v>
-      </c>
-      <c r="M33">
-        <v>7</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.5294117647058824</v>
-      </c>
-      <c r="L34">
-        <v>9</v>
-      </c>
-      <c r="M34">
-        <v>9</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.5</v>
-      </c>
-      <c r="L35">
-        <v>7</v>
-      </c>
-      <c r="M35">
-        <v>7</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.4891304347826087</v>
-      </c>
-      <c r="L36">
-        <v>45</v>
-      </c>
-      <c r="M36">
-        <v>45</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>18</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.4571428571428571</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.45</v>
-      </c>
-      <c r="L39">
-        <v>9</v>
-      </c>
-      <c r="M39">
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>8</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="L41">
-        <v>8</v>
-      </c>
-      <c r="M41">
-        <v>8</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
+      <c r="M47">
+        <v>17</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K42">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="L42">
-        <v>10</v>
-      </c>
-      <c r="M42">
-        <v>10</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K43">
-        <v>0.3125</v>
-      </c>
-      <c r="L43">
-        <v>10</v>
-      </c>
-      <c r="M43">
-        <v>10</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K44">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>10</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="L45">
-        <v>7</v>
-      </c>
-      <c r="M45">
-        <v>7</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46">
-        <v>0.2045454545454546</v>
-      </c>
-      <c r="L46">
-        <v>9</v>
-      </c>
-      <c r="M46">
-        <v>9</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K47">
-        <v>0.2037037037037037</v>
-      </c>
-      <c r="L47">
-        <v>11</v>
-      </c>
-      <c r="M47">
-        <v>11</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="K48">
-        <v>0.09595959595959595</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2696,21 +2600,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.09195402298850575</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2722,151 +2626,151 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.07655502392344497</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>193</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.06</v>
+        <v>0.06147540983606557</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>141</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.05882352941176471</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>208</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.05482456140350877</v>
+        <v>0.05246913580246913</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>431</v>
+        <v>614</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.05303030303030303</v>
+        <v>0.05091819699499165</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="N54">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="O54">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>125</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.05121951219512195</v>
+        <v>0.048834628190899</v>
       </c>
       <c r="L55">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2878,125 +2782,125 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>389</v>
+        <v>857</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.04218362282878412</v>
+        <v>0.0486322188449848</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>386</v>
+        <v>939</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.04126984126984127</v>
+        <v>0.04734411085450346</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>302</v>
+        <v>825</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.03386004514672687</v>
+        <v>0.0447427293064877</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>428</v>
+        <v>854</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.03365384615384615</v>
+        <v>0.04373177842565597</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>804</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>0.03286384976525822</v>
+        <v>0.03860294117647059</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3008,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>412</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K61">
-        <v>0.03239740820734342</v>
+        <v>0.03788447111777944</v>
       </c>
       <c r="L61">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N61">
         <v>0.9399999999999999</v>
@@ -3034,319 +2938,865 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>896</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K62">
-        <v>0.03134796238244514</v>
+        <v>0.0375</v>
       </c>
       <c r="L62">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M62">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N62">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>618</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K63">
-        <v>0.028328611898017</v>
+        <v>0.03697617091207888</v>
       </c>
       <c r="L63">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="M63">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N63">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K64">
-        <v>0.02510460251046025</v>
+        <v>0.03682719546742209</v>
       </c>
       <c r="L64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>466</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K65">
-        <v>0.02325581395348837</v>
+        <v>0.03412073490813648</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N65">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1092</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K66">
-        <v>0.022181146025878</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L66">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O66">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>529</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K67">
-        <v>0.01934134866701516</v>
+        <v>0.03331238214959145</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M67">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N67">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O67">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1876</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K68">
-        <v>0.01810436634717785</v>
+        <v>0.03280224929709466</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>922</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K69">
-        <v>0.01715438950554995</v>
+        <v>0.03171417101565636</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="M69">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="N69">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="O69">
-        <v>0.17</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>1948</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K70">
-        <v>0.01687763713080169</v>
+        <v>0.0288659793814433</v>
       </c>
       <c r="L70">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N70">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>932</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="K71">
-        <v>0.01669877970456005</v>
+        <v>0.02828854314002829</v>
       </c>
       <c r="L71">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M71">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N71">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="O71">
-        <v>0.21</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>1531</v>
+        <v>687</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K72">
-        <v>0.01436781609195402</v>
+        <v>0.0275</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N72">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="O72">
-        <v>0.1899999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>1715</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K73">
+        <v>0.02674897119341564</v>
+      </c>
+      <c r="L73">
+        <v>13</v>
+      </c>
+      <c r="M73">
+        <v>13</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K74">
+        <v>0.02660472972972973</v>
+      </c>
+      <c r="L74">
+        <v>63</v>
+      </c>
+      <c r="M74">
+        <v>74</v>
+      </c>
+      <c r="N74">
+        <v>0.85</v>
+      </c>
+      <c r="O74">
+        <v>0.15</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K75">
+        <v>0.026578073089701</v>
+      </c>
+      <c r="L75">
+        <v>16</v>
+      </c>
+      <c r="M75">
+        <v>19</v>
+      </c>
+      <c r="N75">
+        <v>0.84</v>
+      </c>
+      <c r="O75">
+        <v>0.16</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K76">
+        <v>0.02571638501102131</v>
+      </c>
+      <c r="L76">
+        <v>35</v>
+      </c>
+      <c r="M76">
         <v>37</v>
       </c>
-      <c r="K73">
-        <v>0.006289308176100629</v>
-      </c>
-      <c r="L73">
-        <v>10</v>
-      </c>
-      <c r="M73">
+      <c r="N76">
+        <v>0.95</v>
+      </c>
+      <c r="O76">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77">
+        <v>0.02551679586563307</v>
+      </c>
+      <c r="L77">
+        <v>79</v>
+      </c>
+      <c r="M77">
+        <v>90</v>
+      </c>
+      <c r="N77">
+        <v>0.88</v>
+      </c>
+      <c r="O77">
+        <v>0.12</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78">
+        <v>0.02505827505827506</v>
+      </c>
+      <c r="L78">
+        <v>129</v>
+      </c>
+      <c r="M78">
+        <v>146</v>
+      </c>
+      <c r="N78">
+        <v>0.88</v>
+      </c>
+      <c r="O78">
+        <v>0.12</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>5019</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79">
+        <v>0.02346805736636245</v>
+      </c>
+      <c r="L79">
+        <v>18</v>
+      </c>
+      <c r="M79">
+        <v>21</v>
+      </c>
+      <c r="N79">
+        <v>0.86</v>
+      </c>
+      <c r="O79">
+        <v>0.14</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K80">
+        <v>0.02332814930015552</v>
+      </c>
+      <c r="L80">
+        <v>30</v>
+      </c>
+      <c r="M80">
+        <v>33</v>
+      </c>
+      <c r="N80">
+        <v>0.91</v>
+      </c>
+      <c r="O80">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K81">
+        <v>0.02307692307692308</v>
+      </c>
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>24</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82">
+        <v>0.02233597021870638</v>
+      </c>
+      <c r="L82">
+        <v>48</v>
+      </c>
+      <c r="M82">
+        <v>57</v>
+      </c>
+      <c r="N82">
+        <v>0.84</v>
+      </c>
+      <c r="O82">
+        <v>0.16</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K83">
+        <v>0.02176165803108808</v>
+      </c>
+      <c r="L83">
+        <v>21</v>
+      </c>
+      <c r="M83">
+        <v>24</v>
+      </c>
+      <c r="N83">
+        <v>0.88</v>
+      </c>
+      <c r="O83">
+        <v>0.12</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84">
+        <v>0.021671826625387</v>
+      </c>
+      <c r="L84">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84">
+        <v>0.93</v>
+      </c>
+      <c r="O84">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K85">
+        <v>0.02130434782608696</v>
+      </c>
+      <c r="L85">
+        <v>49</v>
+      </c>
+      <c r="M85">
+        <v>58</v>
+      </c>
+      <c r="N85">
+        <v>0.84</v>
+      </c>
+      <c r="O85">
+        <v>0.16</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K86">
+        <v>0.02130122713591109</v>
+      </c>
+      <c r="L86">
+        <v>92</v>
+      </c>
+      <c r="M86">
+        <v>101</v>
+      </c>
+      <c r="N86">
+        <v>0.91</v>
+      </c>
+      <c r="O86">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K87">
+        <v>0.02090032154340836</v>
+      </c>
+      <c r="L87">
+        <v>13</v>
+      </c>
+      <c r="M87">
+        <v>18</v>
+      </c>
+      <c r="N87">
+        <v>0.72</v>
+      </c>
+      <c r="O87">
+        <v>0.28</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K88">
+        <v>0.01949860724233983</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>16</v>
+      </c>
+      <c r="N88">
+        <v>0.88</v>
+      </c>
+      <c r="O88">
+        <v>0.12</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K89">
+        <v>0.01822323462414579</v>
+      </c>
+      <c r="L89">
+        <v>16</v>
+      </c>
+      <c r="M89">
+        <v>16</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K90">
+        <v>0.01759014951627089</v>
+      </c>
+      <c r="L90">
+        <v>20</v>
+      </c>
+      <c r="M90">
+        <v>23</v>
+      </c>
+      <c r="N90">
+        <v>0.87</v>
+      </c>
+      <c r="O90">
+        <v>0.13</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K91">
+        <v>0.01705115346038114</v>
+      </c>
+      <c r="L91">
         <v>17</v>
       </c>
-      <c r="N73">
-        <v>0.59</v>
-      </c>
-      <c r="O73">
-        <v>0.41</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1580</v>
+      <c r="M91">
+        <v>19</v>
+      </c>
+      <c r="N91">
+        <v>0.89</v>
+      </c>
+      <c r="O91">
+        <v>0.11</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K92">
+        <v>0.01631116687578419</v>
+      </c>
+      <c r="L92">
+        <v>39</v>
+      </c>
+      <c r="M92">
+        <v>42</v>
+      </c>
+      <c r="N92">
+        <v>0.93</v>
+      </c>
+      <c r="O92">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K93">
+        <v>0.01630094043887147</v>
+      </c>
+      <c r="L93">
+        <v>52</v>
+      </c>
+      <c r="M93">
+        <v>63</v>
+      </c>
+      <c r="N93">
+        <v>0.83</v>
+      </c>
+      <c r="O93">
+        <v>0.17</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94">
+        <v>0.0143646408839779</v>
+      </c>
+      <c r="L94">
+        <v>13</v>
+      </c>
+      <c r="M94">
+        <v>13</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>892</v>
       </c>
     </row>
   </sheetData>
